--- a/02_Organisation/Zeitplan.xlsx
+++ b/02_Organisation/Zeitplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulf\Nextcloud\Studienarbeit_Raecherofen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stege\Documents\Studienarbeit\Raeucherofen\02_Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53DEE626-DA5B-4452-901F-46EA43AC26B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611BEAFC-0955-4814-9B28-0EACA0810F78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9CDBC375-49E3-40AB-8342-E43B7C82DA3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9CDBC375-49E3-40AB-8342-E43B7C82DA3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
   <si>
     <t>Zeitplan Sudienarbeit</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Reformationstag</t>
-  </si>
-  <si>
-    <t>Kick Off</t>
   </si>
   <si>
     <t>Januar</t>
@@ -442,15 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -472,24 +460,33 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,54 +805,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8409D704-CCDA-4B20-B662-3CD00E22D612}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" customWidth="1"/>
+    <col min="9" max="9" width="25.7265625" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" customWidth="1"/>
+    <col min="12" max="12" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -863,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -876,16 +873,16 @@
       <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="37">
+      <c r="I4" s="26"/>
+      <c r="J4" s="33">
         <v>1</v>
       </c>
-      <c r="K4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="38"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -906,16 +903,16 @@
       <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="38">
+      <c r="I5" s="26"/>
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -936,18 +933,18 @@
       <c r="H6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="39">
+      <c r="I6" s="26"/>
+      <c r="J6" s="35">
         <v>3</v>
       </c>
-      <c r="K6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -970,16 +967,16 @@
       <c r="H7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="39">
-        <v>4</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="40"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I7" s="38"/>
+      <c r="J7" s="35">
+        <v>4</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1000,16 +997,16 @@
       <c r="H8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="39">
-        <v>5</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="40"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I8" s="28"/>
+      <c r="J8" s="35">
+        <v>5</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1030,27 +1027,25 @@
       <c r="H9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="39">
-        <v>6</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="40"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="J9" s="35">
+        <v>6</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="11">
         <v>7</v>
       </c>
@@ -1064,16 +1059,16 @@
       <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="39">
-        <v>7</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I10" s="26"/>
+      <c r="J10" s="35">
+        <v>7</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1096,16 +1091,16 @@
       <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="37">
-        <v>8</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I11" s="26"/>
+      <c r="J11" s="33">
+        <v>8</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -1126,16 +1121,16 @@
       <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="38">
-        <v>9</v>
-      </c>
-      <c r="K12" s="38" t="s">
+      <c r="I12" s="26"/>
+      <c r="J12" s="34">
+        <v>9</v>
+      </c>
+      <c r="K12" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -1156,18 +1151,18 @@
       <c r="H13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="39">
-        <v>10</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="I13" s="26"/>
+      <c r="J13" s="35">
+        <v>10</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -1190,16 +1185,16 @@
       <c r="H14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="39">
+      <c r="I14" s="27"/>
+      <c r="J14" s="35">
         <v>11</v>
       </c>
-      <c r="K14" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -1220,16 +1215,16 @@
       <c r="H15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="39">
+      <c r="I15" s="28"/>
+      <c r="J15" s="35">
         <v>12</v>
       </c>
-      <c r="K15" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="40"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -1250,18 +1245,18 @@
       <c r="H16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="35">
         <v>13</v>
       </c>
-      <c r="K16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="40"/>
-    </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -1282,16 +1277,16 @@
       <c r="H17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="39">
+      <c r="I17" s="26"/>
+      <c r="J17" s="35">
         <v>14</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="40"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -1314,16 +1309,16 @@
       <c r="H18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="37">
+      <c r="I18" s="26"/>
+      <c r="J18" s="33">
         <v>15</v>
       </c>
-      <c r="K18" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="42"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="15">
         <v>16</v>
       </c>
@@ -1344,16 +1339,16 @@
       <c r="H19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="38">
+      <c r="I19" s="26"/>
+      <c r="J19" s="34">
         <v>16</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>17</v>
       </c>
@@ -1374,18 +1369,18 @@
       <c r="H20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="39">
+      <c r="I20" s="26"/>
+      <c r="J20" s="35">
         <v>17</v>
       </c>
-      <c r="K20" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -1408,16 +1403,16 @@
       <c r="H21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="39">
+      <c r="I21" s="27"/>
+      <c r="J21" s="35">
         <v>18</v>
       </c>
-      <c r="K21" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="40"/>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="36"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -1438,16 +1433,16 @@
       <c r="H22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="39">
+      <c r="I22" s="28"/>
+      <c r="J22" s="35">
         <v>19</v>
       </c>
-      <c r="K22" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="40"/>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K22" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -1468,18 +1463,18 @@
       <c r="H23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="35">
         <v>20</v>
       </c>
-      <c r="K23" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="40"/>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="36"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -1500,16 +1495,16 @@
       <c r="H24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="39">
+      <c r="I24" s="26"/>
+      <c r="J24" s="35">
         <v>21</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="40"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -1532,16 +1527,16 @@
       <c r="H25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="37">
+      <c r="I25" s="26"/>
+      <c r="J25" s="33">
         <v>22</v>
       </c>
-      <c r="K25" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="42"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K25" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>23</v>
       </c>
@@ -1562,18 +1557,18 @@
       <c r="H26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="38">
+      <c r="I26" s="26"/>
+      <c r="J26" s="34">
         <v>23</v>
       </c>
-      <c r="K26" s="38" t="s">
+      <c r="K26" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>24</v>
       </c>
@@ -1594,18 +1589,18 @@
       <c r="H27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="39">
+      <c r="I27" s="26"/>
+      <c r="J27" s="35">
         <v>24</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -1628,18 +1623,18 @@
       <c r="H28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="33" t="s">
+      <c r="I28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="35">
         <v>25</v>
       </c>
-      <c r="K28" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K28" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -1660,18 +1655,18 @@
       <c r="H29" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="34" t="s">
+      <c r="I29" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="35">
         <v>26</v>
       </c>
-      <c r="K29" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="40"/>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K29" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -1692,18 +1687,18 @@
       <c r="H30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="35">
         <v>27</v>
       </c>
-      <c r="K30" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="40"/>
-    </row>
-    <row r="31" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K30" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1724,16 +1719,16 @@
       <c r="H31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="39">
+      <c r="I31" s="26"/>
+      <c r="J31" s="35">
         <v>28</v>
       </c>
-      <c r="K31" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="40"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K31" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="36"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1756,16 +1751,16 @@
       <c r="H32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="37">
+      <c r="I32" s="26"/>
+      <c r="J32" s="33">
         <v>29</v>
       </c>
-      <c r="K32" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="42"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K32" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="38"/>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>30</v>
       </c>
@@ -1786,16 +1781,16 @@
       <c r="H33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="38">
+      <c r="I33" s="26"/>
+      <c r="J33" s="34">
         <v>30</v>
       </c>
-      <c r="K33" s="38" t="s">
+      <c r="K33" s="34" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="17" x14ac:dyDescent="0.35">
       <c r="A34" s="24">
         <v>31</v>
       </c>
@@ -1814,14 +1809,14 @@
       <c r="H34" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="39">
+      <c r="I34" s="32"/>
+      <c r="J34" s="35">
         <v>31</v>
       </c>
-      <c r="K34" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="40"/>
+      <c r="K34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
